--- a/comportamiento T(N).xlsx
+++ b/comportamiento T(N).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Algoritmo suma matricial</t>
   </si>
@@ -44,6 +44,15 @@
   <si>
     <t>Tiempo (Nanosegundos)</t>
   </si>
+  <si>
+    <t>Algoritmo multiplicacion matricial</t>
+  </si>
+  <si>
+    <t>T(N,N,N)=2N^3</t>
+  </si>
+  <si>
+    <t>T(N,M)=2(M*N^2)</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +140,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -144,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -159,6 +180,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,6 +1524,1636 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Tiempo (Nanosegundos)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiplicacion!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo (Nanosegundos)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Multiplicacion!$A$2:$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="26"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>72</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>75</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiplicacion!$C$3:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61545</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150277</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>198230</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>231457</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>286961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>492744</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>561463</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>598466</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>610926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>815575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1355138</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1291327</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1136519</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1277357</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1495976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C25-4BE3-AF69-2D20F1AD249A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiplicacion!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo (Nanosegundos)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Multiplicacion!$A$2:$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="26"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>72</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>75</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiplicacion!$C$3:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27186</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31340</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61545</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150277</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>198230</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>231457</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>286961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>492744</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>561463</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>598466</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>610926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>815575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1355138</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1291327</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1136519</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1277357</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1495976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C25-4BE3-AF69-2D20F1AD249A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="280982015"/>
+        <c:axId val="280984927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="280982015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280984927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="280984927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280982015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiplicacion!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(N,M)=2(M*N^2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Multiplicacion!$A$2:$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="26"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>72</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>75</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiplicacion!$D$3:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47916</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79092</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98784</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147456</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>176868</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>209952</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>246924</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>288000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>333396</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>383328</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>438012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>497664</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>562500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5161-428E-BD51-1AEA02B752D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiplicacion!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(N,N,N)=2N^3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Multiplicacion!$A$2:$B$27</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="26"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>72</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>75</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Multiplicacion!$E$3:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71874</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118638</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148176</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>221184</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>265302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>314928</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>370386</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>432000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500094</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>574992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>657018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>746496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>843750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5161-428E-BD51-1AEA02B752D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="280982015"/>
+        <c:axId val="280984927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="280982015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280984927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="280984927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280982015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1581,6 +3234,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -2078,6 +3811,998 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2636,6 +5361,171 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31228</cdr:x>
+      <cdr:y>0.07359</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.74659</cdr:x>
+      <cdr:y>0.16883</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2367642" y="231321"/>
+          <a:ext cx="3292929" cy="299358"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="es-CO" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3392</cdr:x>
+      <cdr:y>0.05195</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.69813</cdr:x>
+      <cdr:y>0.13853</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2571750" y="163286"/>
+          <a:ext cx="2721428" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2(M*N^2)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t> y </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2N^3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2903,7 +5793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -3450,12 +6340,525 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1132</v>
+      </c>
+      <c r="D3" s="6">
+        <f>2*(B3*A3*A3)</f>
+        <v>36</v>
+      </c>
+      <c r="E3" s="13">
+        <f>2*(A3*A3*A3)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3021</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D27" si="0">2*(B4*A4*A4)</f>
+        <v>288</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E27" si="1">2*(A4*A4*A4)</f>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>9</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4908</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>972</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>11328</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>2304</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>13216</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7">
+        <v>27186</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>7776</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>11664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>31340</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>12348</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7">
+        <v>48330</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>18432</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>27648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>27</v>
+      </c>
+      <c r="B11" s="9">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>61545</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>26244</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>39366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7">
+        <v>84200</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7">
+        <v>116673</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>47916</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>71874</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>36</v>
+      </c>
+      <c r="B14" s="9">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7">
+        <v>150277</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>62208</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>93312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>39</v>
+      </c>
+      <c r="B15" s="9">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7">
+        <v>198230</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>79092</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>118638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>42</v>
+      </c>
+      <c r="B16" s="9">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7">
+        <v>231457</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>98784</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>148176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>45</v>
+      </c>
+      <c r="B17" s="9">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7">
+        <v>286961</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>121500</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>182250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7">
+        <v>492744</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>147456</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>221184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>51</v>
+      </c>
+      <c r="B19" s="9">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7">
+        <v>561463</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>176868</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>265302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>54</v>
+      </c>
+      <c r="B20" s="9">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7">
+        <v>598466</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>209952</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>314928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>57</v>
+      </c>
+      <c r="B21" s="9">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7">
+        <v>610926</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>246924</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>370386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>60</v>
+      </c>
+      <c r="B22" s="9">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>815575</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
+        <v>288000</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>63</v>
+      </c>
+      <c r="B23" s="9">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1355138</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
+        <v>333396</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>500094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>66</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1291327</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
+        <v>383328</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>574992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>69</v>
+      </c>
+      <c r="B25" s="9">
+        <v>46</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1136519</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
+        <v>438012</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>657018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>72</v>
+      </c>
+      <c r="B26" s="9">
+        <v>48</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1277357</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>497664</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>746496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>75</v>
+      </c>
+      <c r="B27" s="9">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1495976</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>562500</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>843750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>